--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9757" uniqueCount="7131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9758" uniqueCount="7131">
   <si>
     <t>Nombre</t>
   </si>
@@ -40209,8 +40209,8 @@
       <c r="K15" t="s">
         <v>7125</v>
       </c>
-      <c r="L15">
-        <v>20000</v>
+      <c r="L15" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9758" uniqueCount="7131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9759" uniqueCount="7131">
   <si>
     <t>Nombre</t>
   </si>
@@ -40247,8 +40247,8 @@
       <c r="K16" t="s">
         <v>7125</v>
       </c>
-      <c r="L16">
-        <v>20000</v>
+      <c r="L16" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9759" uniqueCount="7131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9760" uniqueCount="7131">
   <si>
     <t>Nombre</t>
   </si>
@@ -40285,8 +40285,8 @@
       <c r="K17" t="s">
         <v>7125</v>
       </c>
-      <c r="L17">
-        <v>20000</v>
+      <c r="L17" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9760" uniqueCount="7131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9761" uniqueCount="7131">
   <si>
     <t>Nombre</t>
   </si>
@@ -40323,8 +40323,8 @@
       <c r="K18" t="s">
         <v>7125</v>
       </c>
-      <c r="L18">
-        <v>20000</v>
+      <c r="L18" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9761" uniqueCount="7131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9765" uniqueCount="7132">
   <si>
     <t>Nombre</t>
   </si>
@@ -39161,6 +39161,9 @@
   </si>
   <si>
     <t>20000;62748;20016</t>
+  </si>
+  <si>
+    <t>20000;62748;62748</t>
   </si>
 </sst>
 </file>
@@ -40361,8 +40364,8 @@
       <c r="K19" t="s">
         <v>7125</v>
       </c>
-      <c r="L19">
-        <v>20000</v>
+      <c r="L19" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -40399,8 +40402,8 @@
       <c r="K20" t="s">
         <v>7125</v>
       </c>
-      <c r="L20">
-        <v>20000</v>
+      <c r="L20" t="s">
+        <v>7131</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -40437,8 +40440,8 @@
       <c r="K21" t="s">
         <v>7125</v>
       </c>
-      <c r="L21">
-        <v>20000</v>
+      <c r="L21" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -40475,8 +40478,8 @@
       <c r="K22" t="s">
         <v>7125</v>
       </c>
-      <c r="L22">
-        <v>20000</v>
+      <c r="L22" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9765" uniqueCount="7132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9766" uniqueCount="7132">
   <si>
     <t>Nombre</t>
   </si>
@@ -40516,8 +40516,8 @@
       <c r="K23" t="s">
         <v>7125</v>
       </c>
-      <c r="L23">
-        <v>20000</v>
+      <c r="L23" t="s">
+        <v>7130</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9766" uniqueCount="7132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9767" uniqueCount="7132">
   <si>
     <t>Nombre</t>
   </si>
@@ -40554,8 +40554,8 @@
       <c r="K24" t="s">
         <v>7125</v>
       </c>
-      <c r="L24">
-        <v>20000</v>
+      <c r="L24" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9767" uniqueCount="7132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9768" uniqueCount="7132">
   <si>
     <t>Nombre</t>
   </si>
@@ -40592,8 +40592,8 @@
       <c r="K25" t="s">
         <v>7125</v>
       </c>
-      <c r="L25">
-        <v>20000</v>
+      <c r="L25" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9768" uniqueCount="7132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9769" uniqueCount="7132">
   <si>
     <t>Nombre</t>
   </si>
@@ -40630,8 +40630,8 @@
       <c r="K26" t="s">
         <v>7125</v>
       </c>
-      <c r="L26">
-        <v>20000</v>
+      <c r="L26" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9769" uniqueCount="7132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9770" uniqueCount="7132">
   <si>
     <t>Nombre</t>
   </si>
@@ -40668,8 +40668,8 @@
       <c r="K27" t="s">
         <v>7125</v>
       </c>
-      <c r="L27">
-        <v>20000</v>
+      <c r="L27" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9770" uniqueCount="7132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9771" uniqueCount="7132">
   <si>
     <t>Nombre</t>
   </si>
@@ -40706,8 +40706,8 @@
       <c r="K28" t="s">
         <v>7125</v>
       </c>
-      <c r="L28">
-        <v>20000</v>
+      <c r="L28" t="s">
+        <v>7126</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5203" uniqueCount="4590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5099" uniqueCount="4589">
   <si>
     <t>Nombre</t>
   </si>
@@ -31534,10 +31534,7 @@
     <t>Si</t>
   </si>
   <si>
-    <t>;11250</t>
-  </si>
-  <si>
-    <t>prepro</t>
+    <t>;15980</t>
   </si>
 </sst>
 </file>
@@ -31606,7 +31603,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -31623,6 +31620,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC5D9F0"/>
         <bgColor rgb="FFC5D9F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -31720,7 +31723,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32003,8 +32006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="K2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32094,9 +32097,6 @@
       <c r="L2" t="s">
         <v>4588</v>
       </c>
-      <c r="M2" t="s">
-        <v>4589</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -32129,15 +32129,6 @@
       <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4588</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4589</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -32170,15 +32161,6 @@
       <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4588</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4589</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -32211,15 +32193,6 @@
       <c r="J5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4588</v>
-      </c>
-      <c r="M5" t="s">
-        <v>4589</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -32252,12 +32225,6 @@
       <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -32290,12 +32257,6 @@
       <c r="J7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L7" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -32328,12 +32289,6 @@
       <c r="J8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L8" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -32366,12 +32321,6 @@
       <c r="J9" t="s">
         <v>64</v>
       </c>
-      <c r="K9" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L9" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -32404,12 +32353,6 @@
       <c r="J10" t="s">
         <v>70</v>
       </c>
-      <c r="K10" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>4588</v>
-      </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -32443,12 +32386,6 @@
       <c r="J11" t="s">
         <v>75</v>
       </c>
-      <c r="K11" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L11" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -32481,12 +32418,6 @@
       <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="K12" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L12" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -32519,12 +32450,6 @@
       <c r="J13" t="s">
         <v>86</v>
       </c>
-      <c r="K13" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L13" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -32557,12 +32482,6 @@
       <c r="J14" t="s">
         <v>92</v>
       </c>
-      <c r="K14" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -32595,12 +32514,6 @@
       <c r="J15" t="s">
         <v>98</v>
       </c>
-      <c r="K15" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -32633,14 +32546,8 @@
       <c r="J16" t="s">
         <v>104</v>
       </c>
-      <c r="K16" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -32671,14 +32578,8 @@
       <c r="J17" t="s">
         <v>111</v>
       </c>
-      <c r="K17" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L17" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -32709,14 +32610,8 @@
       <c r="J18" t="s">
         <v>117</v>
       </c>
-      <c r="K18" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L18" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -32747,14 +32642,8 @@
       <c r="J19" t="s">
         <v>122</v>
       </c>
-      <c r="K19" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L19" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -32785,14 +32674,8 @@
       <c r="J20" t="s">
         <v>126</v>
       </c>
-      <c r="K20" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L20" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -32823,17 +32706,8 @@
       <c r="J21" t="s">
         <v>132</v>
       </c>
-      <c r="K21" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L21" t="s">
-        <v>4588</v>
-      </c>
-      <c r="M21">
-        <v>70965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -32864,14 +32738,8 @@
       <c r="J22" t="s">
         <v>138</v>
       </c>
-      <c r="K22" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L22" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -32902,14 +32770,8 @@
       <c r="J23" t="s">
         <v>144</v>
       </c>
-      <c r="K23" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L23" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -32940,14 +32802,8 @@
       <c r="J24" t="s">
         <v>151</v>
       </c>
-      <c r="K24" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L24" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -32978,14 +32834,8 @@
       <c r="J25" t="s">
         <v>157</v>
       </c>
-      <c r="K25" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L25" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -33016,14 +32866,8 @@
       <c r="J26" t="s">
         <v>163</v>
       </c>
-      <c r="K26" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L26" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -33054,14 +32898,8 @@
       <c r="J27" t="s">
         <v>169</v>
       </c>
-      <c r="K27" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L27" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -33092,14 +32930,8 @@
       <c r="J28" t="s">
         <v>175</v>
       </c>
-      <c r="K28" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L28" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -33130,14 +32962,8 @@
       <c r="J29" t="s">
         <v>181</v>
       </c>
-      <c r="K29" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L29" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -33168,14 +32994,8 @@
       <c r="J30" t="s">
         <v>187</v>
       </c>
-      <c r="K30" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L30" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -33206,14 +33026,8 @@
       <c r="J31" t="s">
         <v>193</v>
       </c>
-      <c r="K31" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L31" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -33244,14 +33058,8 @@
       <c r="J32" t="s">
         <v>199</v>
       </c>
-      <c r="K32" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L32" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -33282,14 +33090,8 @@
       <c r="J33" t="s">
         <v>205</v>
       </c>
-      <c r="K33" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L33" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -33320,14 +33122,8 @@
       <c r="J34" t="s">
         <v>211</v>
       </c>
-      <c r="K34" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L34" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -33358,14 +33154,8 @@
       <c r="J35" t="s">
         <v>217</v>
       </c>
-      <c r="K35" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L35" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -33396,14 +33186,8 @@
       <c r="J36" t="s">
         <v>223</v>
       </c>
-      <c r="K36" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L36" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -33434,14 +33218,8 @@
       <c r="J37" t="s">
         <v>229</v>
       </c>
-      <c r="K37" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L37" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -33472,14 +33250,8 @@
       <c r="J38" t="s">
         <v>235</v>
       </c>
-      <c r="K38" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L38" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -33510,14 +33282,8 @@
       <c r="J39" t="s">
         <v>241</v>
       </c>
-      <c r="K39" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L39" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -33548,14 +33314,8 @@
       <c r="J40" t="s">
         <v>246</v>
       </c>
-      <c r="K40" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L40" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>247</v>
       </c>
@@ -33586,14 +33346,8 @@
       <c r="J41" t="s">
         <v>252</v>
       </c>
-      <c r="K41" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L41" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>253</v>
       </c>
@@ -33624,14 +33378,8 @@
       <c r="J42" t="s">
         <v>258</v>
       </c>
-      <c r="K42" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L42" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>259</v>
       </c>
@@ -33662,14 +33410,8 @@
       <c r="J43" t="s">
         <v>265</v>
       </c>
-      <c r="K43" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L43" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>266</v>
       </c>
@@ -33700,14 +33442,8 @@
       <c r="J44" t="s">
         <v>270</v>
       </c>
-      <c r="K44" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L44" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>271</v>
       </c>
@@ -33738,14 +33474,8 @@
       <c r="J45" t="s">
         <v>276</v>
       </c>
-      <c r="K45" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L45" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>277</v>
       </c>
@@ -33776,14 +33506,8 @@
       <c r="J46" t="s">
         <v>282</v>
       </c>
-      <c r="K46" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L46" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>283</v>
       </c>
@@ -33814,14 +33538,8 @@
       <c r="J47" t="s">
         <v>288</v>
       </c>
-      <c r="K47" t="s">
-        <v>4587</v>
-      </c>
-      <c r="L47" t="s">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>289</v>
       </c>
@@ -35752,7 +35470,7 @@
   <dimension ref="A1:D2011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1993" sqref="G1993"/>
+      <selection activeCell="C2" sqref="C2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35782,12 +35500,6 @@
       <c r="B2" s="10" t="s">
         <v>2823</v>
       </c>
-      <c r="C2" t="s">
-        <v>4587</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -35796,12 +35508,6 @@
       <c r="B3" s="7" t="s">
         <v>4015</v>
       </c>
-      <c r="C3" t="s">
-        <v>4587</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -35810,12 +35516,6 @@
       <c r="B4" s="10" t="s">
         <v>4016</v>
       </c>
-      <c r="C4" t="s">
-        <v>4587</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -35824,12 +35524,6 @@
       <c r="B5" s="7" t="s">
         <v>4017</v>
       </c>
-      <c r="C5" t="s">
-        <v>4587</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4588</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -35837,12 +35531,6 @@
       </c>
       <c r="B6" s="7" t="s">
         <v>4018</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4587</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4588</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -51896,7 +51584,7 @@
   <dimension ref="A1:A1914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51910,67 +51598,57 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11250</v>
+      <c r="A2" s="11">
+        <v>15980</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11800</v>
+      <c r="A3" s="11">
+        <v>15470</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15980</v>
+      <c r="A4" s="11">
+        <v>15010</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15470</v>
+      <c r="A5" s="11">
+        <v>16030</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15010</v>
+      <c r="A6" s="11">
+        <v>16443</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16030</v>
+        <v>84920</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16443</v>
+        <v>83833</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>84920</v>
+        <v>84400</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>83833</v>
+        <v>84703</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>84400</v>
+        <v>62790</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>84703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>62790</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
         <v>62896</v>
       </c>
     </row>

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5099" uniqueCount="4589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="4589">
   <si>
     <t>Nombre</t>
   </si>
@@ -32006,7 +32006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
       <selection activeCell="L3" sqref="K2:L3"/>
     </sheetView>
   </sheetViews>
@@ -32129,6 +32129,12 @@
       <c r="J3" t="s">
         <v>28</v>
       </c>
+      <c r="K3" t="s">
+        <v>4587</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -35469,7 +35475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D6"/>
     </sheetView>
   </sheetViews>
@@ -51584,7 +51590,7 @@
   <dimension ref="A1:A1914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="4589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5107" uniqueCount="4590">
   <si>
     <t>Nombre</t>
   </si>
@@ -31535,6 +31535,9 @@
   </si>
   <si>
     <t>;15980</t>
+  </si>
+  <si>
+    <t>;15980;15980</t>
   </si>
 </sst>
 </file>
@@ -32006,7 +32009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+    <sheetView topLeftCell="C31" workbookViewId="0">
       <selection activeCell="L3" sqref="K2:L3"/>
     </sheetView>
   </sheetViews>
@@ -32167,6 +32170,12 @@
       <c r="J4" t="s">
         <v>34</v>
       </c>
+      <c r="K4" t="s">
+        <v>4587</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -35475,7 +35484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2011"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D6"/>
     </sheetView>
   </sheetViews>
@@ -35506,6 +35515,12 @@
       <c r="B2" s="10" t="s">
         <v>2823</v>
       </c>
+      <c r="C2" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4589</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -35513,6 +35528,12 @@
       </c>
       <c r="B3" s="7" t="s">
         <v>4015</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4588</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5107" uniqueCount="4590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5127" uniqueCount="4590">
   <si>
     <t>Nombre</t>
   </si>
@@ -32009,7 +32009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
       <selection activeCell="L3" sqref="K2:L3"/>
     </sheetView>
   </sheetViews>
@@ -32208,6 +32208,12 @@
       <c r="J5" t="s">
         <v>40</v>
       </c>
+      <c r="K5" t="s">
+        <v>4587</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -32240,6 +32246,12 @@
       <c r="J6" t="s">
         <v>47</v>
       </c>
+      <c r="K6" t="s">
+        <v>4587</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -32272,6 +32284,12 @@
       <c r="J7" t="s">
         <v>52</v>
       </c>
+      <c r="K7" t="s">
+        <v>4587</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -32304,6 +32322,12 @@
       <c r="J8" t="s">
         <v>58</v>
       </c>
+      <c r="K8" t="s">
+        <v>4587</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -32335,6 +32359,12 @@
       </c>
       <c r="J9" t="s">
         <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4587</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4588</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -35484,7 +35514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D6"/>
     </sheetView>
   </sheetViews>
@@ -35543,6 +35573,12 @@
       <c r="B4" s="10" t="s">
         <v>4016</v>
       </c>
+      <c r="C4" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -35551,6 +35587,12 @@
       <c r="B5" s="7" t="s">
         <v>4017</v>
       </c>
+      <c r="C5" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -35559,6 +35601,12 @@
       <c r="B6" s="7" t="s">
         <v>4018</v>
       </c>
+      <c r="C6" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -35567,6 +35615,12 @@
       <c r="B7" s="7" t="s">
         <v>2833</v>
       </c>
+      <c r="C7" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4588</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -35574,6 +35628,12 @@
       </c>
       <c r="B8" s="7" t="s">
         <v>4019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4588</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data/BD.xlsx
+++ b/Data/BD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="4592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="4592">
   <si>
     <t>Nombre</t>
   </si>
@@ -35897,6 +35897,12 @@
       <c r="B22" s="7" t="s">
         <v>2840</v>
       </c>
+      <c r="C22" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4587</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -35905,6 +35911,12 @@
       <c r="B23" s="7" t="s">
         <v>2831</v>
       </c>
+      <c r="C23" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4587</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -35913,6 +35925,12 @@
       <c r="B24" s="7" t="s">
         <v>4274</v>
       </c>
+      <c r="C24" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4587</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -35920,6 +35938,12 @@
       </c>
       <c r="B25" s="7" t="s">
         <v>4275</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4587</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
